--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/Storage Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/Storage Controller.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3080" windowWidth="28800" windowHeight="12640"/>
+    <workbookView xWindow="2720" yWindow="3180" windowWidth="28800" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
